--- a/Documentos/Sprint_1de3_HistClinica_G47C3Team02.xlsx
+++ b/Documentos/Sprint_1de3_HistClinica_G47C3Team02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5478F81-34DA-4E15-AC64-11E5D8D7BA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C79B7EE-40D1-4517-AD56-832CB2548D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog " sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>1 de 3</t>
   </si>
   <si>
-    <t>Inicio SPRINT 1</t>
+    <t>Inicio SPRINT 1 PROCESO GITHUB</t>
   </si>
 </sst>
 </file>
@@ -1339,31 +1339,31 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1935,10 +1935,10 @@
   <dimension ref="B1:T166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4:K4"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2231,39 +2231,39 @@
       </c>
       <c r="F8" s="25">
         <f t="shared" ref="F8:O8" si="1">SUBTOTAL(9,F9:F62)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" si="1"/>
@@ -2308,13 +2308,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="39">
         <v>0</v>
@@ -2353,16 +2353,16 @@
         <v>4</v>
       </c>
       <c r="F11" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="34">
         <v>0</v>
@@ -2398,19 +2398,19 @@
         <v>5</v>
       </c>
       <c r="F12" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="45">
         <v>0</v>
@@ -2443,28 +2443,28 @@
         <v>8</v>
       </c>
       <c r="F13" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="45">
         <v>0</v>
@@ -2488,31 +2488,31 @@
         <v>13</v>
       </c>
       <c r="F14" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="45">
         <v>0</v>
@@ -2533,19 +2533,19 @@
         <v>5</v>
       </c>
       <c r="F15" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="45">
         <v>0</v>
